--- a/ig/ch-core/StructureDefinition-ch-core-medicationadministration.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-medicationadministration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T16:13:45+00:00</t>
+    <t>2024-12-17T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-core/StructureDefinition-ch-core-medicationadministration.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="357">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T19:57:45+00:00</t>
+    <t>2025-05-22T06:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -828,7 +828,7 @@
     <t>MedicationAdministration.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|Device)
 </t>
   </si>
   <si>
@@ -1068,27 +1068,19 @@
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
+    <t>Amount of medication per dose</t>
+  </si>
+  <si>
+    <t>The amount of the medication given at one administration event.   Use this value when the administration is essentially an instantaneous event such as a swallowing a tablet or giving an injection.</t>
+  </si>
+  <si>
+    <t>If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]</t>
@@ -1453,17 +1445,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.53515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.53515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.1796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.1796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="207.34765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="217.984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1472,27 +1464,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.77734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.6171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.7421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="101.08984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="22.50390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="245.42578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="86.66796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="19.29296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6239,22 +6231,22 @@
         <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AJ41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -6262,10 +6254,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6288,16 +6280,16 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6347,7 +6339,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6365,13 +6357,13 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -6379,10 +6371,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6405,16 +6397,16 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6464,7 +6456,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -6482,7 +6474,7 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>

--- a/ig/ch-core/StructureDefinition-ch-core-medicationadministration.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-medicationadministration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -367,7 +367,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -511,7 +511,7 @@
     <t>MedicationAdministration.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|Procedure)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -579,7 +579,7 @@
     <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -603,7 +603,7 @@
     <t>A coded concept describing where the medication administered is expected to occur.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-category|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
@@ -628,7 +628,7 @@
     <t>Codes identifying substance or product that can be administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -671,7 +671,7 @@
     <t>MedicationAdministration.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -696,7 +696,7 @@
     <t>MedicationAdministration.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -816,7 +816,7 @@
     <t>A code describing the role an individual played in administering the medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
+    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -856,7 +856,7 @@
     <t>A set of codes indicating the reason why the MedicationAdministration was made.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -871,7 +871,7 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1)
 </t>
   </si>
   <si>
@@ -899,7 +899,7 @@
     <t>MedicationAdministration.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -924,7 +924,7 @@
     <t>MedicationAdministration.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1013,7 +1013,7 @@
     <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes|4.0.1</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1108,7 +1108,7 @@
     <t>MedicationAdministration.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -1470,7 +1470,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.7421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
